--- a/src/main/resources/populate/salledebains.xlsx
+++ b/src/main/resources/populate/salledebains.xlsx
@@ -23,43 +23,43 @@
     <t>Linge de bain</t>
   </si>
   <si>
-    <t>Hygiène et soins</t>
-  </si>
-  <si>
-    <t>Cosmétiques</t>
-  </si>
-  <si>
-    <t>tri, conseil entamer 1 etc</t>
-  </si>
-  <si>
     <t>Appareils</t>
   </si>
   <si>
-    <t>Réserves</t>
-  </si>
-  <si>
-    <t>epil, cheveux, etc</t>
-  </si>
-  <si>
-    <t>Échantillons</t>
-  </si>
-  <si>
-    <t>Cheveux</t>
-  </si>
-  <si>
     <t>Trousse à pharmacie</t>
   </si>
   <si>
-    <t>Vie intime</t>
-  </si>
-  <si>
-    <t>sex toys, présa, lube…</t>
-  </si>
-  <si>
     <t>Autres accessoires</t>
   </si>
   <si>
-    <t>brosse à dos, trucs qui traînent partout, hors catégorie, gadgets…)</t>
+    <t>C'est une serpillère ?</t>
+  </si>
+  <si>
+    <t>Cosmétiques et soins</t>
+  </si>
+  <si>
+    <t>Hygiène</t>
+  </si>
+  <si>
+    <t>"Go Go Gadget !"</t>
+  </si>
+  <si>
+    <t>Ne garde que les serviettes et le linge en bon état, agréables à utiliser, aux bonnes dimensions, faciles à laver (couleurs similaires, matière…).&lt;br&gt;Conserve le nombre de pièces nécessaires en fonction de ton rythme de lessives.</t>
+  </si>
+  <si>
+    <t>Pour éviter d'accumuler, ouvre un seul produit de chaque catégorie à la fois.&lt;br&gt;Débarrasse-toi des produits que tu n'apprécies pas et que tu ne souhaites plus utiliser.&lt;br&gt;Limite tes stocks et n'achète pas trop d'avance.&lt;br&gt;Range les produits similaires au même endroit.&lt;br&gt;Privilégie les produits multi-usages plutôt qu'une multitude de produits ciblés.&lt;br&gt;Trie tes échantillons, ne les garde que si tu comptes partir en voyage et que tu as besoin de petits formats.&lt;br&gt;Les produits d'hygiène non ouverts (y compris les échantillons) peuvent être donnés à des associations.</t>
+  </si>
+  <si>
+    <t>Débarrasse-toi de tout ce qui est ouvert depuis trop longtemps : si la texture, l'odeur ou la couleur a changé, ce produit n'est plus bon à utiliser.&lt;br&gt;Simplifie tes gestes "beauté" au quoitidien et réduis ta collection à ce dont tu as vraiment besoin.&lt;br&gt;Ne garde que ce qui fonctionne bien pour toi et montre des résultats satisfaisants.&lt;br&gt;&lt;a href="https://www.theflonicles.be/2019/04/simplifier-sa-routine-beaute.html"&gt;Plus de conseils pour simplifier sa routine&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Débarrasse-toi des appareils "gadgets" que tu n'utilises pas régulièrement. Il existe toujours une solution équivalente sans appareil électronique et parfois sans matériel supplémentaire.</t>
+  </si>
+  <si>
+    <t>Trie régulièrement tes médicaments.&lt;br&gt;Range-les dans une boîte qui te permet de tous les voir en un coup d'œil.&lt;br&gt;Note sur le dessus de la boîte la date de péremption et l'utilité du médicament.&lt;br&gt;Range-les par catégorie en rassemblant les médicaments similaires.&lt;br&gt;Les médicaments périmés peuvent perdre de leur efficacité, n'utilise jamais de médicaments vitaux dont la date de péremption est dépassée.&lt;br&gt;Les médicaments périmés doivent être rapportés à la pharmacie, ils ne se jettent pas à la poubelle.&lt;br&gt;Tiens une liste à jour de tes médicaments pour éviter d'acheter des doublons.</t>
+  </si>
+  <si>
+    <t>Fais le tour de tout ce qui n'a pas été passé en revue les jours précédents : les gadgets, les accessoires qui trainent sur le rebord du lavabo, les réserves, les produits intimes…&lt;br&gt;Ne garde rien que tu n'utilises pas régulièrement ou que dont tu n'as pas eu l'utilité depuis plusieurs mois, ainsi que tout ce qui est abîmé.&lt;br&gt;A la fin de ton désencombrement, essaie de faire en sorte de pouvoir tout ranger à l'intérieur des meubles : l'entretien de la salle de bains sera plus facile et rapide !</t>
   </si>
 </sst>
 </file>
@@ -95,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,77 +419,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.21875" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
